--- a/TestDoc/MykolaKukla_TestDoc.xlsx
+++ b/TestDoc/MykolaKukla_TestDoc.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CrashCourseAT2022\TestDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B0B85-D7EE-47FB-99B5-2D28BA57EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="BugReport KinoRv" sheetId="1" r:id="rId4"/>
+    <sheet name="BugReport KinoRv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -164,15 +173,17 @@
   <si>
     <r>
       <rPr>
-        <rFont val="arial"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">navigate to </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://www.instagram.com/</t>
     </r>
@@ -240,61 +251,79 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF0D0D0D"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -302,7 +331,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -342,7 +371,13 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -356,6 +391,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -370,27 +406,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -400,6 +443,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -411,27 +455,35 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -441,6 +493,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -449,9 +502,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -466,6 +521,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -480,6 +536,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -494,27 +551,34 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -524,124 +588,93 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -652,24 +685,36 @@
     <xdr:ext cx="5915025" cy="5219700"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Малюнок"/>
+        <xdr:cNvPr id="2" name="Shape 2" title="Малюнок">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="6137121" cy="5410200"/>
+          <a:off x="1244600" y="8915400"/>
+          <a:ext cx="5915025" cy="5219700"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="6137121" cy="5410200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -703,24 +748,36 @@
     <xdr:ext cx="8515350" cy="4676775"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Малюнок"/>
+        <xdr:cNvPr id="4" name="Shape 2" title="Малюнок">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="7315200" cy="4009707"/>
+          <a:off x="879475" y="3759200"/>
+          <a:ext cx="8515350" cy="4676775"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="7315200" cy="4009707"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="5" name="Shape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId2">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -748,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -938,42 +995,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:D84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="38.75"/>
-    <col customWidth="1" min="7" max="7" width="6.63"/>
-    <col customWidth="1" min="8" max="8" width="13.0"/>
-    <col customWidth="1" min="9" max="9" width="39.13"/>
-    <col customWidth="1" min="10" max="10" width="55.75"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="9" width="39.08984375" customWidth="1"/>
+    <col min="10" max="10" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="39"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -987,7 +1050,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1001,15 +1064,15 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1017,12 +1080,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="39"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1030,7 +1094,8 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1108,8 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1122,8 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1072,7 +1138,8 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1152,8 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1101,7 +1168,8 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39"/>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1114,8 +1182,8 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1130,7 +1198,8 @@
       <c r="G12" s="11"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1212,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1156,8 +1226,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1172,7 +1242,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1185,7 +1256,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
@@ -1196,7 +1268,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="13">
       <c r="A75" s="12" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1279,7 @@
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="13">
       <c r="A76" s="12" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1290,7 @@
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="13">
       <c r="A77" s="12" t="s">
         <v>39</v>
       </c>
@@ -1229,14 +1301,14 @@
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="13">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="13">
       <c r="A79" s="12" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1319,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="13">
       <c r="A80" s="12" t="s">
         <v>43</v>
       </c>
@@ -1258,7 +1330,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="13">
       <c r="A81" s="16" t="s">
         <v>17</v>
       </c>
@@ -1266,120 +1338,120 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="13">
       <c r="A83" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="22" t="s">
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
+    </row>
+    <row r="84" spans="1:4" ht="12.5">
+      <c r="A84" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="26"/>
-      <c r="B85" s="27" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="1:4" ht="12.5">
+      <c r="A85" s="42"/>
+      <c r="B85" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="28" t="s">
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86" spans="1:4" ht="13">
+      <c r="A86" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="B87" s="32" t="s">
+    <row r="87" spans="1:4" ht="12.5">
+      <c r="A87" s="22">
+        <v>1</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="30" t="b">
+      <c r="D87" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="B88" s="33" t="s">
+    <row r="88" spans="1:4" ht="12.5">
+      <c r="A88" s="22">
+        <v>2</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="30" t="b">
+      <c r="D88" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="B89" s="32" t="s">
+    <row r="89" spans="1:4" ht="12.5">
+      <c r="A89" s="22">
+        <v>3</v>
+      </c>
+      <c r="B89" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="30" t="b">
+      <c r="D89" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="31">
-        <v>4.0</v>
-      </c>
-      <c r="B90" s="32" t="s">
+    <row r="90" spans="1:4" ht="12.5">
+      <c r="A90" s="22">
+        <v>4</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="30" t="b">
+      <c r="D90" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="B91" s="32" t="s">
+    <row r="91" spans="1:4" ht="12.5">
+      <c r="A91" s="22">
+        <v>5</v>
+      </c>
+      <c r="B91" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D91" s="30" t="b">
+      <c r="D91" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="34" t="s">
+    <row r="92" spans="1:4" ht="13">
+      <c r="A92" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B92" s="35" t="s">
@@ -1388,37 +1460,37 @@
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" ht="12.5">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
     </row>
-    <row r="96">
-      <c r="A96" s="38" t="s">
+    <row r="96" spans="1:4" ht="26">
+      <c r="A96" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="39">
-        <v>44657.0</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="B96" s="27">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.5">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="12.5">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="14"/>
     </row>
-    <row r="101">
-      <c r="A101" s="38"/>
-      <c r="B101" s="39"/>
+    <row r="101" spans="1:5" ht="13">
+      <c r="A101" s="26"/>
+      <c r="B101" s="27"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" ht="12.5">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -1427,25 +1499,25 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A84:A85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C8"/>
-    <hyperlink r:id="rId2" ref="B84"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="6" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="6" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>